--- a/web-scraping/job.xlsx
+++ b/web-scraping/job.xlsx
@@ -397,13 +397,738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>job_title</v>
+      </c>
+      <c r="B1" t="str">
+        <v>company_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>location</v>
+      </c>
+      <c r="D1" t="str">
+        <v>job_type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>posted_date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v xml:space="preserve">Urgent Requirement for Banking DATA ENTRY Project || No Fees || Salary 35000 to 45000 || Work from Home Job </v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v xml:space="preserve">URGENT HIRING FOR AIRPORT || JOB IN NURSING ANM GNM ANY OTHER QUALIFICATIONS || JOB LOCATION BANGALORE AIRPORT </v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Nurse - 
+                            Hospital,  Clinic,  Private-House,  Ambulance
+                            + 4 more
+        </v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v xml:space="preserve">Part Time Jobs Work From Home Jobs Just Write In your Handwriting or Cursive Handwriting  and Earn From Home </v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Content Writer - 
+                            Entertainment,  Medical,  Banking-&amp;-Financial-Services,  Technology
+                            + 4 more
+        </v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v xml:space="preserve">AURANGABAD INTERNATIONAL AIRPORT HRING SECURITY GUARD AND TICKET COUNTER JOBS CURRENT APPLE CANDIDATE IN AIRPORT JOBS VACANCY. </v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Security/Guard - 
+                            Private-Security,  Armed-Forces
+        </v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v xml:space="preserve">Urgent Hiring Driver job for Kempegowda International Airport Bangalore. </v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Driver - 
+                            Company-driver,  Private-Driver,  Commercial-Transport-Driver,  Interstate-Driver
+                            + 10 more
+        </v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v xml:space="preserve">VACANCY IN AMAZON INDIA FOR HOME-BASED DATA ENTRY JOB  | ALL OVER INDIA VACANCY </v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v xml:space="preserve">URGENT RECRUITMENT IN MUTHOOT FINANCE FOR DATA ENTRY JOB | HOME-BASED </v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v xml:space="preserve">EARN 30K WORK FROM HOME JOBS DATA ENTRY BACK OFFICE </v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v xml:space="preserve">we have a good jobs in BPO telecaller full time jobs and part time jobs vacancy available </v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            BPO/ Telecaller - 
+                            Domestic,  Incoming,  Non Voice,  Outgoing
+                            + 2 more
+        </v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v xml:space="preserve">Data Entry jobs in Bangalore </v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v xml:space="preserve">WORK FROM HOME &amp; PART TIME JOBS CANDIDATES REQUIRED URGENTLY DAILY EARN 30000 WEEKLY PAYMENT, YOU CAN WORK ANYTIME THERE IS NO TIME </v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Now Requirements Boys Candidates For Therapist Job Vacancy At Artimam Spa Center </v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Others
+        </v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v xml:space="preserve">Female Massage therapist job - part time </v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Beautician - 
+                            Massage
+        </v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v xml:space="preserve">MEESHO part time HOME BASED data entry jobs					 </v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Simple Data Entry &amp; Form Filling Work home based Job </v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --- </v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Engineer
+        </v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --&amp; </v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Engineer
+        </v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --| </v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Engineer
+        </v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Work from Home Job opportunity for MD Dermatologist in India </v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Doctor - 
+                            Dermatologist
+        </v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v xml:space="preserve">Jobs and Employment </v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Business Analyst
+        </v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v xml:space="preserve">Job in Bangalore for freshers  </v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Operator/Machinist - 
+                            Laundry
+        </v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v xml:space="preserve">Helper Job in Transport Bhadrak </v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Office Assistant/Helper
+        </v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v xml:space="preserve">Book Editing Job </v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Data Entry /Back Office
+        </v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v xml:space="preserve">Auto Driving Job  </v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Driver - 
+                            Company-driver,  Commercial-Transport-Driver,  Auto-Driver,  Taxi/Cab
+        </v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v xml:space="preserve">Ice-cream parlor jobs </v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            Sales - 
+                            Food-and-Beverage-Sales
+        </v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/web-scraping/job.xlsx
+++ b/web-scraping/job.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,711 +424,2387 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v xml:space="preserve">Urgent Requirement for Banking DATA ENTRY Project || No Fees || Salary 35000 to 45000 || Work from Home Job </v>
+        <v>Psychiatrist</v>
       </c>
       <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Mack-Hill</v>
+      </c>
+      <c r="C2" t="str">
+        <v>West Cynthia, Wisconsin</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
+        <v>2024-01-28</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Specific group religious. Of deal rule government really
+					participant social.Water final yourself serious area way.
+					Our foot be teach political.
+				</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v xml:space="preserve">URGENT HIRING FOR AIRPORT || JOB IN NURSING ANM GNM ANY OTHER QUALIFICATIONS || JOB LOCATION BANGALORE AIRPORT </v>
+        <v>Trade mark attorney</v>
       </c>
       <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Nurse - 
-                            Hospital,  Clinic,  Private-House,  Ambulance
-                            + 4 more
-        </v>
+        <v>Nixon Inc</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Goodmantown, Massachusetts</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
+        <v>2024-01-30</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Produce remain most ahead. Happen hair none wonder today. Between
+					fund sing evening.Mr case you. Name store necessary wish
+					detail effect. Little anyone standard mention reflect.
+				</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v xml:space="preserve">Part Time Jobs Work From Home Jobs Just Write In your Handwriting or Cursive Handwriting  and Earn From Home </v>
+        <v>Education officer, community</v>
       </c>
       <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Content Writer - 
-                            Entertainment,  Medical,  Banking-&amp;-Financial-Services,  Technology
-                            + 4 more
-        </v>
+        <v>Nelson-Spencer</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Lake Matthew, Maryland</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
+        <v>2024-02-14</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Ok attorney hard answer up blue end. Idea buy be beyond task.With
+					discussion near in. Property question actually church picture
+					anyone.
+				</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v xml:space="preserve">AURANGABAD INTERNATIONAL AIRPORT HRING SECURITY GUARD AND TICKET COUNTER JOBS CURRENT APPLE CANDIDATE IN AIRPORT JOBS VACANCY. </v>
+        <v>Dentist</v>
       </c>
       <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Security/Guard - 
-                            Private-Security,  Armed-Forces
-        </v>
+        <v>Underwood, Richards and Mullins</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Nicoleside, Utah</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
+        <v>2024-01-25</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Leader later left would light. Agent modern force learn. Song
+					into thousand.Like then bit assume reach. Not ever
+					institution pretty interesting church.
+				</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v xml:space="preserve">Urgent Hiring Driver job for Kempegowda International Airport Bangalore. </v>
+        <v>Civil Service fast streamer</v>
       </c>
       <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Driver - 
-                            Company-driver,  Private-Driver,  Commercial-Transport-Driver,  Interstate-Driver
-                            + 10 more
-        </v>
+        <v>Sloan, Medina and Bowen</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Tateberg, Minnesota</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
+        <v>2024-01-22</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Social source bit. Amount wait join with sense. Population
+					condition somebody still research same nearly true.
+				</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v xml:space="preserve">VACANCY IN AMAZON INDIA FOR HOME-BASED DATA ENTRY JOB  | ALL OVER INDIA VACANCY </v>
+        <v>Designer, fashion/clothing</v>
       </c>
       <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Barton Group</v>
+      </c>
+      <c r="C7" t="str">
+        <v>New Paulburgh, Tennessee</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v/>
+        <v>2024-02-11</v>
+      </c>
+      <c r="F7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Ready cover half open. Receive attorney history early father his
+					rich. Possible meeting government keep international likely.
+					Ahead knowledge develop true base out.
+				</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v xml:space="preserve">URGENT RECRUITMENT IN MUTHOOT FINANCE FOR DATA ENTRY JOB | HOME-BASED </v>
+        <v>Magazine features editor</v>
       </c>
       <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Schmidt, Mathis and Cooper</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Bonnieside, Utah</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v/>
+        <v>2024-01-25</v>
+      </c>
+      <c r="F8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Fill something rest gas use. Red name civil message fight.At
+					according room. Bad help suffer general quite.Impact act
+					product such remain traditional floor. Rock nor not production
+					might.
+				</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v xml:space="preserve">EARN 30K WORK FROM HOME JOBS DATA ENTRY BACK OFFICE </v>
+        <v>Lawyer</v>
       </c>
       <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Howard, Carr and Peterson</v>
+      </c>
+      <c r="C9" t="str">
+        <v>North Derekton, Arkansas</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v/>
+        <v>2024-01-22</v>
+      </c>
+      <c r="F9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					National drop again campaign million share. Mouth draw or window
+					you. Human summer per factor.Pick building experience build
+					morning wife clearly. Radio fast head just simply.
+				</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v xml:space="preserve">we have a good jobs in BPO telecaller full time jobs and part time jobs vacancy available </v>
+        <v>Scientist, research (life sciences)</v>
       </c>
       <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            BPO/ Telecaller - 
-                            Domestic,  Incoming,  Non Voice,  Outgoing
-                            + 2 more
-        </v>
+        <v>Griffin, Foster and French</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Lindsayshire, South Carolina</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
+        <v>2024-01-23</v>
+      </c>
+      <c r="F10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Card beat because. Lawyer matter rate music ground arrive.She
+					huge off nothing. Military computer impact reason sit.Step
+					you order might future night. Hour prevent charge song ok media.
+				</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v xml:space="preserve">Data Entry jobs in Bangalore </v>
+        <v>Designer, jewellery</v>
       </c>
       <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Williams, Nguyen and Johnston</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Michaelton, Iowa</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v/>
+        <v>2024-01-30</v>
+      </c>
+      <c r="F11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Government idea time peace defense fact. Though seven join
+					follow.Each performance really paper fight team firm. North
+					toward term performance now catch.
+				</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v xml:space="preserve">WORK FROM HOME &amp; PART TIME JOBS CANDIDATES REQUIRED URGENTLY DAILY EARN 30000 WEEKLY PAYMENT, YOU CAN WORK ANYTIME THERE IS NO TIME </v>
+        <v>Surveyor, minerals</v>
       </c>
       <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Chambers, Ferguson and Zimmerman</v>
+      </c>
+      <c r="C12" t="str">
+        <v>East Amandaport, Massachusetts</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
+        <v>2024-02-10</v>
+      </c>
+      <c r="F12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Very ability shoulder bit dark station these. That save beyond
+					cost medical base whose. Sense team choice range.
+				</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v xml:space="preserve">Now Requirements Boys Candidates For Therapist Job Vacancy At Artimam Spa Center </v>
+        <v>Commercial art gallery manager</v>
       </c>
       <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Others
-        </v>
+        <v>Duncan-Nelson</v>
+      </c>
+      <c r="C13" t="str">
+        <v>South Alan, South Dakota</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v/>
+        <v>2024-02-18</v>
+      </c>
+      <c r="F13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Inside father difficult less society word. Wide cold recently
+					series institution current measure. Maintain catch bad human.
+				</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v xml:space="preserve">Female Massage therapist job - part time </v>
+        <v>Chief Operating Officer</v>
       </c>
       <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Beautician - 
-                            Massage
-        </v>
+        <v>Grimes-Morgan</v>
+      </c>
+      <c r="C14" t="str">
+        <v>West Georgefort, Oklahoma</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
+        <v>2024-02-04</v>
+      </c>
+      <c r="F14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Skill economic response the box score sound. Too hear poor
+					concern data.Kid these couple too in factor fight station.
+					Wind team during Congress war discussion.
+				</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
-        <v xml:space="preserve">MEESHO part time HOME BASED data entry jobs					 </v>
+        <v>Catering manager</v>
       </c>
       <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Thompson-Simpson</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Kevinshire, Kansas</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
+        <v>2024-02-11</v>
+      </c>
+      <c r="F15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Economic upon indeed economic protect responsibility. Whether
+					book eye structure baby. Really possible religious play consider.
+					Manager modern boy work pretty pull.
+				</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v xml:space="preserve">Simple Data Entry &amp; Form Filling Work home based Job </v>
+        <v>Chartered loss adjuster</v>
       </c>
       <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Finley-White</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Lake Meredith, Washington</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
+        <v>2024-02-18</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					American ground realize keep. Western learn finally north.Explain
+					entire position spend action day our. Able alone phone region
+					within. Drug for step open hour.
+				</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v/>
+        <v>Engineer, drilling</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>Garcia, Dominguez and Simpson</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Jenniferhaven, Wisconsin</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
+        <v>2024-02-13</v>
+      </c>
+      <c r="F17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Wish traditional carry tax focus. Imagine process task
+					tonight.School continue base skin medical drug between
+					suddenly. Front season various imagine military.
+				</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v/>
+        <v>Engineer, communications</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Brown, Weeks and Case</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Lake Tylerfurt, Texas</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
+        <v>2024-02-13</v>
+      </c>
+      <c r="F18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Town difficult say newspaper offer. Discover page end account.Create
+					meeting figure how. Event adult hair machine reason. Line either
+					police. Base special his agent entire.
+				</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v/>
+        <v>Medical illustrator</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>Rice, Allison and French</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>Maciasfort, Texas</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <v/>
+        <v>2024-01-28</v>
+      </c>
+      <c r="F19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Past key worker hope success leader. Seek baby him our leg.Discover
+					popular someone. Sort must room present.Tonight once or.Process
+					method if dark growth next. Control performance space.
+				</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --- </v>
+        <v>Social worker</v>
       </c>
       <c r="B20" t="str">
-        <v/>
-      </c>
-      <c r="C20" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Engineer
-        </v>
+        <v>Graham-Williams</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Timothyburgh, Louisiana</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E20" t="str">
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <v/>
+        <v>2024-02-14</v>
+      </c>
+      <c r="F20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					So international buy believe however issue. Yes political wall
+					off former. Important history onto cold outside grow group.Fight
+					remember son. Thing identify meeting own simple power.
+				</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --&amp; </v>
+        <v>Loss adjuster, chartered</v>
       </c>
       <c r="B21" t="str">
-        <v/>
-      </c>
-      <c r="C21" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Engineer
-        </v>
+        <v>Schneider, Roberts and Garcia</v>
+      </c>
+      <c r="C21" t="str">
+        <v>East Sandra, Connecticut</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v/>
+        <v>2024-02-19</v>
+      </c>
+      <c r="F21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Stand five degree the across marriage leg security. Without class
+					over kitchen treatment community great yes.Several TV once
+					former food particular serve.
+				</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v xml:space="preserve">Tata Motors Ltd Mechanical Engineer and all the engineers only freshers candidates can be allowed to apply the job directly joining Freshers Ready --| </v>
+        <v>Fitness centre manager</v>
       </c>
       <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Engineer
-        </v>
+        <v>Soto, Wade and Logan</v>
+      </c>
+      <c r="C22" t="str">
+        <v>West Tracyshire, Vermont</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v/>
+        <v>2024-02-05</v>
+      </c>
+      <c r="F22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Effect care already participant three role father meet. Force
+					pretty always. Answer individual site such woman new.
+				</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v xml:space="preserve">Work from Home Job opportunity for MD Dermatologist in India </v>
+        <v>Hospital doctor</v>
       </c>
       <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Doctor - 
-                            Dermatologist
-        </v>
+        <v>Mendoza-Atkins</v>
+      </c>
+      <c r="C23" t="str">
+        <v>West John, Delaware</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
+        <v>2024-01-25</v>
+      </c>
+      <c r="F23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Series might ability game help assume card. Trouble around
+					against space within water arm. Each term activity although Mr
+					policy.Four management cell. Close out me chance able
+					nothing indeed trial.
+				</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v xml:space="preserve">Jobs and Employment </v>
+        <v>Financial adviser</v>
       </c>
       <c r="B24" t="str">
-        <v/>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Business Analyst
-        </v>
+        <v>Henderson-Jensen</v>
+      </c>
+      <c r="C24" t="str">
+        <v>North Megan, Washington</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v/>
+        <v>2024-02-15</v>
+      </c>
+      <c r="F24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Red hair act rock better those. Majority protect clear both read
+					class. Need build dream play.Teach rock dark center.
+				</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v xml:space="preserve">Job in Bangalore for freshers  </v>
+        <v>Animal technologist</v>
       </c>
       <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Operator/Machinist - 
-                            Laundry
-        </v>
+        <v>Harris, Harris and Evans</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Lake Donaldburgh, North Dakota</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v/>
+        <v>2024-02-18</v>
+      </c>
+      <c r="F25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Concern news summer level dark will. Note enjoy event raise world
+					role their. Behind material understand I protect job let against.
+					Option various international put.
+				</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v xml:space="preserve">Helper Job in Transport Bhadrak </v>
+        <v>Secretary/administrator</v>
       </c>
       <c r="B26" t="str">
-        <v/>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Office Assistant/Helper
-        </v>
+        <v>Wallace Group</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Gutierrezport, Minnesota</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v/>
+        <v>2024-01-25</v>
+      </c>
+      <c r="F26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					State build around form method thus. Look experience start
+					western beat where parent up.Run protect film every later.
+					Police agree chair during.
+				</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v xml:space="preserve">Book Editing Job </v>
+        <v>Licensed conveyancer</v>
       </c>
       <c r="B27" t="str">
-        <v/>
-      </c>
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Data Entry /Back Office
-        </v>
+        <v>Morris, Vazquez and Romero</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Matthewshire, Nebraska</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <v/>
+        <v>2024-02-07</v>
+      </c>
+      <c r="F27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Most southern project whom drop. Argue religious visit lay
+					letter.Grow state outside north. Would be serious write
+					social.
+				</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v xml:space="preserve">Auto Driving Job  </v>
+        <v>Teacher, early years/pre</v>
       </c>
       <c r="B28" t="str">
-        <v/>
-      </c>
-      <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Driver - 
-                            Company-driver,  Commercial-Transport-Driver,  Auto-Driver,  Taxi/Cab
-        </v>
+        <v>Lewis-Allen</v>
+      </c>
+      <c r="C28" t="str">
+        <v>East Dustinside, Michigan</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <v/>
+        <v>2024-02-18</v>
+      </c>
+      <c r="F28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Alone trip else past sense high.Bit including society
+					somebody organization daughter. Leave recent which health girl.
+					Other radio TV hundred. Girl serve modern drive law know issue.
+				</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v xml:space="preserve">Ice-cream parlor jobs </v>
+        <v>Actor</v>
       </c>
       <c r="B29" t="str">
-        <v/>
-      </c>
-      <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            Sales - 
-                            Food-and-Beverage-Sales
-        </v>
+        <v>Davis-Thompson</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Clementsside, West Virginia</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E29" t="str">
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
+        <v>2024-02-20</v>
+      </c>
+      <c r="F29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Thank successful think discussion material. Better current
+					analysis stop.Note listen thank require during join. Per
+					many stay road defense operation run.
+				</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v/>
+        <v>Multimedia programmer</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>Taylor LLC</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>Mcintyretown, North Dakota</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>Contract</v>
       </c>
       <c r="E30" t="str">
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
+        <v>2024-01-31</v>
+      </c>
+      <c r="F30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Special of situation score memory third. And morning risk
+					them.Region decision mention front wind. Product pass
+					focus.
+				</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v/>
+        <v>Geologist, wellsite</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>Brennan Ltd</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>Jennifertown, Minnesota</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32">
+        <v>2024-01-26</v>
+      </c>
+      <c r="F31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Shoulder pattern down drive continue course industry. Help south
+					one similar.Fire say large entire. Another lawyer act
+					mouth. Camera majority less together man child movie.
+				</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v/>
+        <v>Chiropractor</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Hopkins Group</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>Mcdowellshire, Louisiana</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>Part-time</v>
       </c>
       <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
+        <v>2024-01-25</v>
+      </c>
+      <c r="F32" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Personal community wait current marriage technology. Sign hold
+					between finish. Believe near paper government score.
+				</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
-        <v/>
+        <v>Engineer, mining</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>Mclaughlin and Sons</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Sanchezmouth, West Virginia</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>Full-time</v>
       </c>
       <c r="E33" t="str">
-        <v/>
-      </c>
-      <c r="F33" t="str">
-        <v/>
+        <v>2024-01-24</v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Change high Republican. Word rock at third air radio.Look
+					key factor strong. Customer sit all off. Outside he when
+					everybody occur read.
+				</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Orthoptist</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Sharp, Hardy and Bass</v>
+      </c>
+      <c r="C34" t="str">
+        <v>New Sarahview, Rhode Island</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E34" t="str">
+        <v>2024-02-12</v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Brother statement meeting mind cup ten agent. Cup small rock
+					industry may. Wait poor bag director prevent lay.
+				</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Technical author</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Finley-Thompson</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Charleshaven, Texas</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2024-01-28</v>
+      </c>
+      <c r="F35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Prevent enter structure key wonder stop. Actually thus industry.
+					Doctor choose by their include. Why within class scene message
+					across.
+				</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Hydrographic surveyor</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Yates, Garrett and Johnson</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Summersborough, Montana</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2024-02-20</v>
+      </c>
+      <c r="F36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Difficult huge cut fill education. Purpose health add race agree
+					than.National language cold fire. Public person drop when.
+				</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Lecturer, higher education</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Green, Price and Sanders</v>
+      </c>
+      <c r="C37" t="str">
+        <v>South Stefanie, Arkansas</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					National since company radio painting wonder challenge. Whose
+					design know must force sit law. First college probably goal.Themselves
+					perform add book citizen throw. Pick alone series today edge.
+				</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Fisheries officer</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Ferguson, Hancock and Barber</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Lake Catherine, Ohio</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2024-02-12</v>
+      </c>
+      <c r="F38" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Put even speech save daughter especially. Future southern our let
+					interesting yes. Ok become begin knowledge our focus. Blood may
+					bed some animal pretty black.
+				</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Armed forces technical officer</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Grimes, Shaffer and Garcia</v>
+      </c>
+      <c r="C39" t="str">
+        <v>East Katherine, Massachusetts</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="F39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Bit fall now father big. Yard leave effect security north lead.
+					Base anything return over stop.Chair safe special human
+					case how office. Onto provide down carry word their sea.
+				</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Solicitor, Scotland</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Carter and Sons</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Jamestown, Alaska</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2024-01-27</v>
+      </c>
+      <c r="F40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Address season industry rather trip against. By how mention
+					people everyone away while. Sing produce official real.
+				</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Engineer, mining</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Morgan, Mata and Fields</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Watsonland, Washington</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2024-02-12</v>
+      </c>
+      <c r="F41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Serve forward this carry world should smile military. Government
+					economic accept could special four.
+				</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Chief Operating Officer</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Gill-Wilson</v>
+      </c>
+      <c r="C42" t="str">
+        <v>West Vanessafurt, Nevada</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2024-02-18</v>
+      </c>
+      <c r="F42" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					By pick box page. True piece grow section group.Support
+					name apply discuss stay. Move both political worry more crime
+					different. Physical key way group population who threat.
+				</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Operational researcher</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Jensen PLC</v>
+      </c>
+      <c r="C43" t="str">
+        <v>South Deborah, Georgia</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2024-02-09</v>
+      </c>
+      <c r="F43" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Church speech month. Often one what picture option also learn.Although
+					short event natural fall. Around until three card to huge
+					sing.Year baby final require. Fast it probably.
+				</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Intelligence analyst</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Gardner-Frost</v>
+      </c>
+      <c r="C44" t="str">
+        <v>South Emilyburgh, Pennsylvania</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E44" t="str">
+        <v>2024-02-13</v>
+      </c>
+      <c r="F44" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Start outside traditional create hit. Theory nor cultural near
+					concern.Hour nature reflect defense. Final opportunity
+					energy onto.Friend across until consider follow.
+				</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Patent attorney</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Herman, Barnes and Davis</v>
+      </c>
+      <c r="C45" t="str">
+        <v>East Ashley, Vermont</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E45" t="str">
+        <v>2024-02-18</v>
+      </c>
+      <c r="F45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Again human all institution certain. She establish by very small
+					after. Many knowledge my skin next want soon plan.
+				</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Charity officer</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Roach Group</v>
+      </c>
+      <c r="C46" t="str">
+        <v>East John, Nebraska</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E46" t="str">
+        <v>2024-02-03</v>
+      </c>
+      <c r="F46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Ball suffer respond most. Imagine central son president prevent.
+					Mission open discussion law share.Star system our total
+					compare miss. Action parent thousand service chance. Force film
+					others.
+				</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Podiatrist</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Pope-Curry</v>
+      </c>
+      <c r="C47" t="str">
+        <v>North Lorraine, Hawaii</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E47" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="F47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Success buy statement. Race land local area.There medical
+					design must. Down ago sign age study interest. Hit open arrive
+					place.
+				</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Private music teacher</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Ramirez-Hayes</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Kimfort, Idaho</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2024-01-31</v>
+      </c>
+      <c r="F48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Daughter a stop any attack shake. Experience society on last
+					religious.
+				</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Engineer, chemical</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Richard, Holloway and Scott</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lake Robert, Virginia</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E49" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="F49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Deal position last enough.Spend wish lose entire behavior
+					to street. North media how.Owner woman myself relationship
+					travel tonight return. Have certain visit action.
+				</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Tourist information centre manager</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Allen, Smith and Stephenson</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Nancyhaven, Oklahoma</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E50" t="str">
+        <v>2024-02-16</v>
+      </c>
+      <c r="F50" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Beyond stock financial game total. Especially action like also
+					man. Safe poor the with decision.Second born get care
+					believe develop.
+				</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>Programmer, systems</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Gonzalez-Moses</v>
+      </c>
+      <c r="C51" t="str">
+        <v>South Brittany, New Mexico</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E51" t="str">
+        <v>2024-02-20</v>
+      </c>
+      <c r="F51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Operation well course society. Program must yourself general
+					expert game trouble. Yard hospital one western raise recent best.
+				</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Immigration officer</v>
+      </c>
+      <c r="B52" t="str">
+        <v>King-Caldwell</v>
+      </c>
+      <c r="C52" t="str">
+        <v>South Monica, Pennsylvania</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2024-01-31</v>
+      </c>
+      <c r="F52" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Trade parent water subject scene middle service. Seat
+					relationship continue such ten find cover pull. Fund student
+					support grow those.
+				</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Field seismologist</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Benson Inc</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Changport, Rhode Island</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2024-02-09</v>
+      </c>
+      <c r="F53" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Sport about Mrs soon risk. Education push staff Congress
+					particularly race.Tough sea peace movie. Professor as there
+					sing. Item see chair war level. Step eat hundred with new let
+					structure.
+				</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Medical illustrator</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Murillo-Norman</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Garciabury, Oregon</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E54" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="F54" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Member ten follow let spring. More trade case role project
+					seek.Significant level pick against perhaps add.
+				</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Sound technician, broadcasting/film/video</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Brown Ltd</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Port Marcus, Tennessee</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E55" t="str">
+        <v>2024-01-28</v>
+      </c>
+      <c r="F55" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Office five skin soon very buy. Cup upon cost brother pressure
+					exist such.World necessary college fear sit. Maintain
+					remember decision movement bring his. Adult culture study
+					subject.
+				</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Metallurgist</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Baker-Stewart</v>
+      </c>
+      <c r="C56" t="str">
+        <v>South Jenniferhaven, Indiana</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E56" t="str">
+        <v>2024-01-24</v>
+      </c>
+      <c r="F56" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Full interview increase name. Others commercial property light
+					mention parent beat. Small by loss cut pull.
+				</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Software engineer</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Waters-Garcia</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Hendersonland, North Carolina</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E57" t="str">
+        <v>2024-02-08</v>
+      </c>
+      <c r="F57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Person time worker.Return voice gun most avoid. Indeed
+					current anything idea.
+				</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Buyer, industrial</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Smith, Bautista and Melton</v>
+      </c>
+      <c r="C58" t="str">
+        <v>West Leslieville, Tennessee</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E58" t="str">
+        <v>2024-02-02</v>
+      </c>
+      <c r="F58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Affect budget avoid. Note get enough professional positive
+					old.Score sound place old. Laugh others door Congress.Left
+					base him course may heavy boy. Guess whose tonight clear.
+				</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Sports administrator</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Smith, Roach and Gonzalez</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Martinton, North Dakota</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E59" t="str">
+        <v>2024-01-30</v>
+      </c>
+      <c r="F59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Model prepare last memory action still determine. With TV
+					Democrat team most system sing.Friend do sell country.
+					Reduce rather believe past out discover themselves.
+				</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Associate Professor</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Hubbard, Long and Berger</v>
+      </c>
+      <c r="C60" t="str">
+        <v>South Kaylaborough, Nevada</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="F60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Writer system specific level surface through themselves measure.
+					Performance break quickly answer simply summer minute. Five major
+					through over as identify send.
+				</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Designer, fashion/clothing</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Osborn Group</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Gregoryville, New Mexico</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="F61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Word general hotel today. Mr group fire writer. Service cell
+					case. Population sing nothing word stock budget forget.
+				</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Dentist</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Bryant-Roberts</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Mitchellland, New Hampshire</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E62" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="F62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Only entire fear performance collection attention play. Early
+					employee who example from analysis team.Up agent range
+					because fear. Rock class card.
+				</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Arboriculturist</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Thompson, Irwin and Combs</v>
+      </c>
+      <c r="C63" t="str">
+        <v>South Courtneystad, Wisconsin</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E63" t="str">
+        <v>2024-01-31</v>
+      </c>
+      <c r="F63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Center model old second task. Such close support role oil.Baby
+					article business less method. Agent street front maintain develop
+					start conference. Stay different protect prepare.
+				</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Aeronautical engineer</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Johnson Group</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Sheilafurt, Alaska</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E64" t="str">
+        <v>2024-01-27</v>
+      </c>
+      <c r="F64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Meet law total into special population yard everyone. Scientist
+					left memory candidate dog. Thought accept whether change read
+					answer.Benefit leg boy late music event election. Service
+					common about.
+				</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Conservation officer, nature</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Walker Inc</v>
+      </c>
+      <c r="C65" t="str">
+        <v>New Gregorybury, Illinois</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E65" t="str">
+        <v>2024-02-11</v>
+      </c>
+      <c r="F65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					They share trade few letter truth.Dream when push study
+					near guess century state. Guy hear meeting use suffer. Ball
+					remain they pass pass. Authority listen main research among.
+				</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Warehouse manager</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Diaz-Allen</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Lake Thomasmouth, Louisiana</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2024-01-28</v>
+      </c>
+      <c r="F66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					That such across bank think song. Five your after per population
+					capital point. Four anything understand become.Chair head
+					event unit some. Idea current moment both.
+				</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>Teacher, music</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Smith, Sanchez and Roy</v>
+      </c>
+      <c r="C67" t="str">
+        <v>South Taylor, Connecticut</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E67" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="F67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Any seek speak federal as although north. Personal cover out
+					building determine soldier finally.
+				</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Accounting technician</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Erickson Inc</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Angelamouth, Kansas</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E68" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="F68" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Peace manager move step media represent. With tell third free.Surface
+					buy answer bed again. Give force front key policy.Floor
+					learn response marriage room Mr deep director.
+				</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Heritage manager</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Walter-Newman</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Jefferyhaven, New Jersey</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E69" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="F69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Itself cup three their. Difference month fall send buy. Just find
+					current own response who. Important current at table.
+				</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Tree surgeon</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Lopez-Bentley</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Anthonyhaven, South Carolina</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E70" t="str">
+        <v>2024-02-11</v>
+      </c>
+      <c r="F70" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Writer community message already way. Commercial into open same
+					rise positive morning. Within too cause book economic others he.
+				</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>Clothing/textile technologist</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Simmons, Wilkinson and West</v>
+      </c>
+      <c r="C71" t="str">
+        <v>East Andrew, Iowa</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E71" t="str">
+        <v>2024-02-09</v>
+      </c>
+      <c r="F71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Our popular increase party project. Number year family major.
+					Program may suffer watch.News should follow order computer.
+					Mother season like under. Probably ahead wait trial plan.
+				</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Psychotherapist</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Ramirez-Pearson</v>
+      </c>
+      <c r="C72" t="str">
+        <v>North Mariabury, Ohio</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E72" t="str">
+        <v>2024-02-13</v>
+      </c>
+      <c r="F72" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Design ten save. Try list political set. Edge first the decision
+					recent suffer shoulder growth. Stay remember above health surface
+					professor.
+				</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Geophysicist/field seismologist</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Hooper LLC</v>
+      </c>
+      <c r="C73" t="str">
+        <v>East Danielville, Tennessee</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E73" t="str">
+        <v>2024-01-30</v>
+      </c>
+      <c r="F73" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Room pattern again not skin. Room tree chance chance study cover.
+					Myself whose later decide nation participant.
+				</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Advertising account executive</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Sanchez LLC</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Marymouth, Colorado</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E74" t="str">
+        <v>2024-02-09</v>
+      </c>
+      <c r="F74" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Number per military audience might want.Network put nature
+					course choose behavior use. Administration concern by between
+					condition.
+				</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Programmer, multimedia</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Blake, Green and Santos</v>
+      </c>
+      <c r="C75" t="str">
+        <v>East Cynthia, Virginia</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E75" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="F75" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Stuff debate quickly establish memory.Learn woman local
+					approach place maintain. First energy tend. News add while base
+					interest agent.
+				</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Forest/woodland manager</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Cantrell-Pearson</v>
+      </c>
+      <c r="C76" t="str">
+        <v>New Alyssachester, New York</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="F76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Life term blood.Letter establish far foreign technology
+					detail. Test lot blood popular tell. Factor school understand
+					share whether.
+				</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Conservation officer, nature</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Martin-White</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Stonetown, Maryland</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2024-01-30</v>
+      </c>
+      <c r="F77" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Song clearly he benefit foreign pull experience. Economic form
+					create lawyer of network painting. Ok successful rich career
+					these big down.Since throughout stuff. Issue item better
+					people.
+				</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Best boy</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Nguyen-Douglas</v>
+      </c>
+      <c r="C78" t="str">
+        <v>New Robinport, Arizona</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E78" t="str">
+        <v>2024-02-07</v>
+      </c>
+      <c r="F78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Report perhaps last public.Ability between condition learn
+					success affect out director. Hour generation board traditional
+					happen you.
+				</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Geochemist</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Ellis Group</v>
+      </c>
+      <c r="C79" t="str">
+        <v>West Kimberly, Michigan</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E79" t="str">
+        <v>2024-02-08</v>
+      </c>
+      <c r="F79" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Herself writer head choose all plan consumer. Listen plan
+					personal lot woman building art face. Like these another my keep.
+				</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Therapist, nutritional</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Booth-Nichols</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Cynthiaville, New Hampshire</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2024-02-18</v>
+      </c>
+      <c r="F80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Late coach color. Perhaps deal north job situation the quite
+					against.Happen probably agreement cell ball charge room.
+					Behind away step. So mouth vote.
+				</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Music therapist</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Sandoval-Rivera</v>
+      </c>
+      <c r="C81" t="str">
+        <v>New Tammy, Maine</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E81" t="str">
+        <v>2024-02-20</v>
+      </c>
+      <c r="F81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Debate nice group citizen bar. Young her last middle method since
+					democratic. Themselves outside force system.
+				</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Call centre manager</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Gamble, Arnold and Garcia</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Dennismouth, Virginia</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E82" t="str">
+        <v>2024-01-29</v>
+      </c>
+      <c r="F82" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Research vote note clearly measure cold successful. Score
+					response ago success person know security.Leave run human
+					support back upon eight.
+				</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Copywriter, advertising</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Lucas Group</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Jamesfurt, Oregon</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E83" t="str">
+        <v>2024-02-02</v>
+      </c>
+      <c r="F83" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Itself focus care moment. Mrs paper report case of series no.
+					Southern fish production body system.Important open like
+					follow dream. Hold could election charge clearly perhaps.
+				</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Broadcast presenter</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Peterson, Lindsey and Meyers</v>
+      </c>
+      <c r="C84" t="str">
+        <v>East Rebecca, Delaware</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2024-02-17</v>
+      </c>
+      <c r="F84" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Much consumer back like together organization everything.
+					Republican high employee forward fight left. Item however it
+					prepare this.Possible game sort. Nearly star gas early buy
+					remember.
+				</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Psychiatric nurse</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Cannon Group</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Tammystad, West Virginia</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E85" t="str">
+        <v>2024-02-04</v>
+      </c>
+      <c r="F85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Result everyone represent program. Common happen wide reflect
+					plant memory.Need turn bar even book. Young former walk
+					very production. Must form politics detail.
+				</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Engineer, civil (contracting)</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Morales Ltd</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Lake Cynthiaburgh, Idaho</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E86" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="F86" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Station factor several amount board everyone approach. Commercial
+					again power interview science service.Effect training fact
+					adult choice. Visit feeling interest who wish.
+				</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Occupational psychologist</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Russo, Griffin and Carroll</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Cantutown, Colorado</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E87" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="F87" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Determine public court enter current lead.Reach smile as
+					outside professor professor return. Simply region expert exactly
+					south thought especially. Painting gun suggest assume.
+				</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Brewing technologist</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Burnett-Mckinney</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Gallegoston, Texas</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2024-02-06</v>
+      </c>
+      <c r="F88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Push hit son easy win yeah federal. Public now loss. Mean him
+					life back great trip.
+				</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Engineer, structural</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Stewart, Flores and Brown</v>
+      </c>
+      <c r="C89" t="str">
+        <v>East Julie, West Virginia</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E89" t="str">
+        <v>2024-01-24</v>
+      </c>
+      <c r="F89" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Recent her eight thought against center. Address eight cover will
+					list. Talk husband both newspaper.
+				</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Civil engineer, consulting</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Downs-Lopez</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Romanburgh, Texas</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E90" t="str">
+        <v>2024-02-19</v>
+      </c>
+      <c r="F90" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Chair Congress beyond figure while arrive keep. Investment
+					project garden offer daughter traditional get.
+				</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Farm manager</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Williams, Sanchez and Bennett</v>
+      </c>
+      <c r="C91" t="str">
+        <v>North Shawnland, Oregon</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E91" t="str">
+        <v>2024-02-16</v>
+      </c>
+      <c r="F91" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Type always appear effort finish. Dream add common center
+					knowledge. Your boy onto rather arrive need.Democratic fall
+					couple. Goal later available local fire. Well art leave us
+					police.
+				</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Engineer, mining</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Brown and Sons</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Robertborough, Pennsylvania</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E92" t="str">
+        <v>2024-01-27</v>
+      </c>
+      <c r="F92" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Activity baby experience wish city. Kitchen rest customer. His
+					reason example threat.
+				</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Purchasing manager</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Holloway, Wallace and Price</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Nicholasbury, Oklahoma</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2024-02-03</v>
+      </c>
+      <c r="F93" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Myself magazine war rather someone these yet without. Want gun
+					treatment service wide prove. Exist mean campaign society anyone
+					consider.
+				</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Warden/ranger</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Thomas Inc</v>
+      </c>
+      <c r="C94" t="str">
+        <v>South Robert, Michigan</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E94" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="F94" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Big become sense allow often majority view. Write dog ready
+					return several purpose.Seem late thus much reflect. Piece
+					lay wind.Team off bring hard.
+				</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Accounting technician</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Martinez, Calderon and Franklin</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Meghanshire, Arizona</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E95" t="str">
+        <v>2024-02-14</v>
+      </c>
+      <c r="F95" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Data election officer decision. Improve summer avoid several
+					stuff others president. Both glass artist stand book popular born
+					through.
+				</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Insurance claims handler</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Price-Williams</v>
+      </c>
+      <c r="C96" t="str">
+        <v>New Michaelview, North Dakota</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E96" t="str">
+        <v>2024-02-04</v>
+      </c>
+      <c r="F96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Later region discover machine live later. Choice officer fast
+					begin capital anyone.Quickly stop stay bar glass above.
+					Suffer to recognize describe people.Sing involve choose all
+					owner decision.
+				</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Museum/gallery exhibitions officer</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Jackson and Sons</v>
+      </c>
+      <c r="C97" t="str">
+        <v>East Cameron, Wyoming</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2024-02-12</v>
+      </c>
+      <c r="F97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Production system nice ready century. Financial teach forward
+					listen mother least popular.
+				</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Production assistant, radio</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Roth PLC</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Port Williamville, Hawaii</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E98" t="str">
+        <v>2024-02-09</v>
+      </c>
+      <c r="F98" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Shoulder evidence military run court. Lose song song forward yeah
+					theory.Mr action election. Foreign spring guess base.
+				</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Interior and spatial designer</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Adams Group</v>
+      </c>
+      <c r="C99" t="str">
+        <v>West Kathryn, Georgia</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2024-02-12</v>
+      </c>
+      <c r="F99" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Build effort best walk until he. Thought school stay listen
+					either fact up. Among budget manager build.
+				</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Chief Executive Officer</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Leonard-Moran</v>
+      </c>
+      <c r="C100" t="str">
+        <v>North Heather, Texas</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E100" t="str">
+        <v>2024-01-29</v>
+      </c>
+      <c r="F100" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Church lawyer nor mouth. Wall trip account notice. While game
+					forward attention.Operation statement plan choose capital.
+					North too probably. Sell property develop suggest know newspaper.
+				</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Charity fundraiser</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Jackson-Fitzgerald</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Lake Christopher, Illinois</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2024-01-26</v>
+      </c>
+      <c r="F101" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+					Cold feeling catch buy whom check. Million street cup feeling
+					understand million contain discuss. Worry along happy place
+					serious task.Room final assume garden.
+				</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F101"/>
   </ignoredErrors>
 </worksheet>
 </file>